--- a/SG_nais_einheiten_unique.xlsx
+++ b/SG_nais_einheiten_unique.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\projects\CCWSG\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\develops\sensitivewaldstandorteCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4870CD-CFD4-41EC-A3FC-96615AB17E4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B96856C-B7BA-4679-B342-923F9BBCDA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="14136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="blatt1" sheetId="1" r:id="rId1"/>
@@ -1338,7 +1338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1346,23 +1346,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1673,34 +1670,34 @@
   <dimension ref="A1:H290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E283" sqref="E283"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.05078125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.41796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.3125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.20703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="213.89453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="84.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>291</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1713,770 +1710,770 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>294</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>294</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>296</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>296</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>294</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="2">
         <v>11</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="2">
         <v>11</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="2">
         <v>11</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>297</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>295</v>
       </c>
       <c r="E16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>295</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>295</v>
       </c>
       <c r="E18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>298</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>295</v>
       </c>
       <c r="E21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>295</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>298</v>
       </c>
       <c r="E27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="2" t="s">
         <v>299</v>
       </c>
       <c r="E28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="2" t="s">
         <v>298</v>
       </c>
       <c r="E34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="2" t="s">
         <v>300</v>
       </c>
       <c r="E35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>295</v>
       </c>
       <c r="E36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="2" t="s">
         <v>302</v>
       </c>
       <c r="F39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="2" t="s">
         <v>302</v>
       </c>
       <c r="F40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>45</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E41" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="2" t="s">
         <v>301</v>
       </c>
       <c r="F42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="2">
         <v>14</v>
       </c>
       <c r="F43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="2">
         <v>14</v>
       </c>
       <c r="F44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="2" t="s">
         <v>303</v>
       </c>
       <c r="F45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="2">
         <v>14</v>
       </c>
       <c r="F46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="2">
         <v>14</v>
       </c>
       <c r="F47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="2">
         <v>15</v>
       </c>
       <c r="F48" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="2">
         <v>15</v>
       </c>
       <c r="F49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="2" t="s">
         <v>306</v>
       </c>
       <c r="E50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="2">
         <v>15</v>
       </c>
       <c r="F51" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="2">
         <v>16</v>
       </c>
       <c r="E52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="2">
         <v>16</v>
       </c>
       <c r="E53" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="2">
         <v>16</v>
       </c>
       <c r="E54" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="2">
         <v>17</v>
       </c>
       <c r="F55" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>61</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="2">
         <v>17</v>
       </c>
       <c r="F56" t="s">
@@ -2486,280 +2483,280 @@
         <v>307</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>62</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="2" t="s">
         <v>304</v>
       </c>
       <c r="F57" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="2">
         <v>17</v>
       </c>
       <c r="F58" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>64</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="2">
         <v>18</v>
       </c>
       <c r="E59" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>65</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E60" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>66</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E61" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>67</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="2" t="s">
         <v>308</v>
       </c>
       <c r="E62" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="2">
         <v>18</v>
       </c>
       <c r="E63" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="2" t="s">
         <v>305</v>
       </c>
       <c r="E64" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E65" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E66" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="2" t="s">
         <v>309</v>
       </c>
       <c r="E67" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E68" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>74</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="2" t="s">
         <v>313</v>
       </c>
       <c r="E69" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>75</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="2">
         <v>18</v>
       </c>
       <c r="E70" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E71" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>77</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="2" t="s">
         <v>310</v>
       </c>
       <c r="E72" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>78</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E73" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>79</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="2" t="s">
         <v>311</v>
       </c>
       <c r="E74" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>80</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="2">
         <v>19</v>
       </c>
       <c r="E75" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="7" t="s">
         <v>316</v>
       </c>
       <c r="E76" s="4" t="s">
@@ -2769,798 +2766,798 @@
         <v>315</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>82</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="2">
         <v>19</v>
       </c>
       <c r="E77" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>83</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="2" t="s">
         <v>316</v>
       </c>
       <c r="E78" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E79" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>85</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="2" t="s">
         <v>318</v>
       </c>
       <c r="E80" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>86</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E81" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>87</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="2" t="s">
         <v>86</v>
       </c>
       <c r="E82" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>88</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="2">
         <v>2</v>
       </c>
       <c r="F83" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>89</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="2">
         <v>2</v>
       </c>
       <c r="F84" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>90</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="2">
         <v>20</v>
       </c>
       <c r="E85" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>91</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="2">
         <v>20</v>
       </c>
       <c r="E86" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>92</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="2">
         <v>20</v>
       </c>
       <c r="E87" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>93</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="2">
         <v>20</v>
       </c>
       <c r="E88" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>94</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="2" t="s">
         <v>317</v>
       </c>
       <c r="E89" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="2">
         <v>20</v>
       </c>
       <c r="E90" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>96</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="2">
         <v>20</v>
       </c>
       <c r="E91" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>97</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="2" t="s">
         <v>317</v>
       </c>
       <c r="E92" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>98</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="2" t="s">
         <v>319</v>
       </c>
       <c r="E93" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E94" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>100</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E95" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>101</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="2" t="s">
         <v>322</v>
       </c>
       <c r="E96" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>102</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="2" t="s">
         <v>317</v>
       </c>
       <c r="E97" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>103</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="2" t="s">
         <v>317</v>
       </c>
       <c r="E98" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>104</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="2">
         <v>20</v>
       </c>
       <c r="E99" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="2">
         <v>20</v>
       </c>
       <c r="E100" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>106</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="2" t="s">
         <v>317</v>
       </c>
       <c r="E101" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>107</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="2" t="s">
         <v>319</v>
       </c>
       <c r="E102" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>108</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="2" t="s">
         <v>319</v>
       </c>
       <c r="E103" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>109</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="2" t="s">
         <v>317</v>
       </c>
       <c r="E104" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>110</v>
       </c>
-      <c r="D105" s="5">
+      <c r="D105" s="2">
         <v>21</v>
       </c>
       <c r="E105" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>111</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="2" t="s">
         <v>320</v>
       </c>
       <c r="E106" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>112</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="2">
         <v>22</v>
       </c>
       <c r="F107" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>114</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="2">
         <v>22</v>
       </c>
       <c r="F108" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>115</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F109" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
         <v>116</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F110" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>117</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="2" t="s">
         <v>117</v>
       </c>
       <c r="F111" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>118</v>
       </c>
-      <c r="D112" s="5">
+      <c r="D112" s="2">
         <v>22</v>
       </c>
       <c r="F112" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>119</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F113" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
         <v>120</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="2" t="s">
         <v>321</v>
       </c>
       <c r="F114" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
         <v>121</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="2">
         <v>23</v>
       </c>
       <c r="F115" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
         <v>122</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="2" t="s">
         <v>324</v>
       </c>
       <c r="F116" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>123</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="2" t="s">
         <v>326</v>
       </c>
       <c r="F117" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
         <v>124</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="2" t="s">
         <v>324</v>
       </c>
       <c r="F118" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
         <v>125</v>
       </c>
-      <c r="D119" s="5">
+      <c r="D119" s="2">
         <v>24</v>
       </c>
       <c r="F119" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
         <v>127</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F120" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
         <v>129</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F121" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
         <v>130</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="2" t="s">
         <v>327</v>
       </c>
       <c r="F122" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
         <v>131</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="2" t="s">
         <v>328</v>
       </c>
       <c r="F123" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>132</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F124" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
         <v>133</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F125" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
         <v>134</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="2" t="s">
         <v>327</v>
       </c>
       <c r="F126" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
         <v>135</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="2" t="s">
         <v>328</v>
       </c>
       <c r="F127" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
         <v>136</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="2" t="s">
         <v>327</v>
       </c>
       <c r="F128" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
         <v>137</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="2">
         <v>24</v>
       </c>
       <c r="F129" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
         <v>138</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F130" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
         <v>139</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="2" t="s">
         <v>327</v>
       </c>
       <c r="F131" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
         <v>140</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="2" t="s">
         <v>325</v>
       </c>
       <c r="F132" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
         <v>141</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="2">
         <v>24</v>
       </c>
       <c r="F133" t="s">
@@ -3570,70 +3567,70 @@
         <v>330</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
         <v>142</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="2">
         <v>25</v>
       </c>
       <c r="F134" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
         <v>143</v>
       </c>
-      <c r="D135" s="5">
+      <c r="D135" s="2">
         <v>25</v>
       </c>
       <c r="F135" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
         <v>144</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="2" t="s">
         <v>331</v>
       </c>
       <c r="F136" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
         <v>145</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="2" t="s">
         <v>331</v>
       </c>
       <c r="F137" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
         <v>146</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="2" t="s">
         <v>331</v>
       </c>
       <c r="F138" t="s">
@@ -3643,196 +3640,196 @@
         <v>340</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
         <v>147</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="2" t="s">
         <v>331</v>
       </c>
       <c r="F139" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
         <v>148</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F140" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
         <v>149</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F141" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>150</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="2" t="s">
         <v>332</v>
       </c>
       <c r="F142" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
         <v>151</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D143" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F143" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
         <v>152</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F144" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
         <v>153</v>
       </c>
-      <c r="D145" s="5">
+      <c r="D145" s="2">
         <v>25</v>
       </c>
       <c r="F145" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
         <v>154</v>
       </c>
-      <c r="D146" s="5">
+      <c r="D146" s="2">
         <v>26</v>
       </c>
       <c r="F146" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
         <v>155</v>
       </c>
-      <c r="D147" s="5">
+      <c r="D147" s="2">
         <v>26</v>
       </c>
       <c r="F147" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
         <v>156</v>
       </c>
-      <c r="D148" s="5">
+      <c r="D148" s="2">
         <v>26</v>
       </c>
       <c r="F148" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
         <v>157</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F149" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
         <v>158</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F150" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
         <v>159</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D151" s="2" t="s">
         <v>334</v>
       </c>
       <c r="F151" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
         <v>160</v>
       </c>
-      <c r="D152" s="5">
+      <c r="D152" s="2">
         <v>27</v>
       </c>
       <c r="F152" t="s">
@@ -3842,28 +3839,28 @@
         <v>336</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
         <v>161</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="2" t="s">
         <v>161</v>
       </c>
       <c r="F153" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="154" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D154" s="8" t="s">
+      <c r="D154" s="7" t="s">
         <v>161</v>
       </c>
       <c r="F154" s="4" t="s">
@@ -3873,14 +3870,14 @@
         <v>341</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
         <v>163</v>
       </c>
-      <c r="D155" s="5">
+      <c r="D155" s="2">
         <v>27</v>
       </c>
       <c r="F155" t="s">
@@ -3890,14 +3887,14 @@
         <v>335</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
         <v>164</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D156" s="2">
         <v>27</v>
       </c>
       <c r="F156" t="s">
@@ -3907,84 +3904,84 @@
         <v>335</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
         <v>165</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E157" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
         <v>166</v>
       </c>
-      <c r="D158" s="5">
+      <c r="D158" s="2">
         <v>28</v>
       </c>
       <c r="F158" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
         <v>167</v>
       </c>
-      <c r="D159" s="5">
+      <c r="D159" s="2">
         <v>28</v>
       </c>
       <c r="F159" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
         <v>168</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="2" t="s">
         <v>338</v>
       </c>
       <c r="F160" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
         <v>169</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D161" s="2" t="s">
         <v>338</v>
       </c>
       <c r="F161" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
         <v>170</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D162" s="2" t="s">
         <v>338</v>
       </c>
       <c r="F162" t="s">
@@ -3994,483 +3991,483 @@
         <v>339</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
         <v>171</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="2" t="s">
         <v>338</v>
       </c>
       <c r="F163" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
         <v>172</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D164" s="2" t="s">
         <v>172</v>
       </c>
       <c r="F164" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
         <v>173</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165" s="2" t="s">
         <v>338</v>
       </c>
       <c r="E165" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
         <v>174</v>
       </c>
-      <c r="D166" s="5">
+      <c r="D166" s="2">
         <v>29</v>
       </c>
       <c r="F166" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
         <v>175</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E167" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
         <v>176</v>
       </c>
-      <c r="D168" s="5">
+      <c r="D168" s="2">
         <v>30</v>
       </c>
       <c r="F168" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
         <v>177</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D169" s="2" t="s">
         <v>177</v>
       </c>
       <c r="F169" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
         <v>178</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="2" t="s">
         <v>178</v>
       </c>
       <c r="F170" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
         <v>179</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171" s="2" t="s">
         <v>342</v>
       </c>
       <c r="F171" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
         <v>180</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F172" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
         <v>181</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="2" t="s">
         <v>343</v>
       </c>
       <c r="F173" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
         <v>182</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="2" t="s">
         <v>182</v>
       </c>
       <c r="F174" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
         <v>183</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="2" t="s">
         <v>183</v>
       </c>
       <c r="F175" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
         <v>184</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="2" t="s">
         <v>184</v>
       </c>
       <c r="F176" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
         <v>185</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D177" s="2" t="s">
         <v>185</v>
       </c>
       <c r="F177" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
         <v>186</v>
       </c>
-      <c r="D178" s="5">
+      <c r="D178" s="2">
         <v>46</v>
       </c>
       <c r="F178" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
         <v>187</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="D179" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F179" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
         <v>188</v>
       </c>
-      <c r="D180" s="5">
+      <c r="D180" s="2">
         <v>46</v>
       </c>
       <c r="F180" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
         <v>189</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D181" s="2" t="s">
         <v>189</v>
       </c>
       <c r="E181" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
         <v>190</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D182" s="2" t="s">
         <v>344</v>
       </c>
       <c r="E182" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
         <v>191</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="D183" s="2" t="s">
         <v>191</v>
       </c>
       <c r="F183" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
         <v>192</v>
       </c>
-      <c r="D184" s="5">
+      <c r="D184" s="2">
         <v>48</v>
       </c>
       <c r="F184" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
         <v>194</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="D185" s="2" t="s">
         <v>345</v>
       </c>
       <c r="F185" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
         <v>195</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="2">
         <v>49</v>
       </c>
       <c r="F186" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
         <v>196</v>
       </c>
-      <c r="D187" s="5" t="s">
+      <c r="D187" s="2" t="s">
         <v>196</v>
       </c>
       <c r="E187" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
         <v>198</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="D188" s="2" t="s">
         <v>198</v>
       </c>
       <c r="E188" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
         <v>199</v>
       </c>
-      <c r="D189" s="5" t="s">
+      <c r="D189" s="2" t="s">
         <v>196</v>
       </c>
       <c r="E189" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
         <v>200</v>
       </c>
-      <c r="D190" s="5" t="s">
+      <c r="D190" s="2" t="s">
         <v>348</v>
       </c>
       <c r="E190" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
         <v>201</v>
       </c>
-      <c r="D191" s="5">
+      <c r="D191" s="2">
         <v>51</v>
       </c>
       <c r="E191" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
         <v>202</v>
       </c>
-      <c r="D192" s="5">
+      <c r="D192" s="2">
         <v>51</v>
       </c>
       <c r="E192" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
         <v>203</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="D193" s="2" t="s">
         <v>350</v>
       </c>
       <c r="E193" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
         <v>204</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="D194" s="2" t="s">
         <v>346</v>
       </c>
       <c r="E194" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
         <v>205</v>
       </c>
-      <c r="D195" s="5" t="s">
+      <c r="D195" s="2" t="s">
         <v>349</v>
       </c>
       <c r="E195" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
         <v>206</v>
       </c>
-      <c r="D196" s="5">
+      <c r="D196" s="2">
         <v>52</v>
       </c>
       <c r="E196" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4480,14 +4477,14 @@
       <c r="C197" t="s">
         <v>354</v>
       </c>
-      <c r="D197" s="5">
+      <c r="D197" s="2">
         <v>53</v>
       </c>
       <c r="E197" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4497,14 +4494,14 @@
       <c r="C198" t="s">
         <v>355</v>
       </c>
-      <c r="D198" s="5" t="s">
+      <c r="D198" s="2" t="s">
         <v>356</v>
       </c>
       <c r="F198" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4514,14 +4511,14 @@
       <c r="C199" t="s">
         <v>354</v>
       </c>
-      <c r="D199" s="5">
+      <c r="D199" s="2">
         <v>53</v>
       </c>
       <c r="E199" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4531,56 +4528,56 @@
       <c r="C200" t="s">
         <v>355</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="D200" s="2" t="s">
         <v>356</v>
       </c>
       <c r="F200" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
         <v>210</v>
       </c>
-      <c r="D201" s="5" t="s">
+      <c r="D201" s="2" t="s">
         <v>347</v>
       </c>
       <c r="F201" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
         <v>211</v>
       </c>
-      <c r="D202" s="5" t="s">
+      <c r="D202" s="2" t="s">
         <v>352</v>
       </c>
       <c r="F202" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
         <v>212</v>
       </c>
-      <c r="D203" s="5">
+      <c r="D203" s="2">
         <v>56</v>
       </c>
       <c r="F203" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -4590,14 +4587,14 @@
       <c r="C204" t="s">
         <v>357</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="D204" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E204" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -4607,98 +4604,98 @@
       <c r="C205" t="s">
         <v>358</v>
       </c>
-      <c r="D205" s="5" t="s">
+      <c r="D205" s="2" t="s">
         <v>216</v>
       </c>
       <c r="E205" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
         <v>214</v>
       </c>
-      <c r="D206" s="5" t="s">
+      <c r="D206" s="2" t="s">
         <v>214</v>
       </c>
       <c r="F206" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
         <v>216</v>
       </c>
-      <c r="D207" s="5" t="s">
+      <c r="D207" s="2" t="s">
         <v>216</v>
       </c>
       <c r="E207" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" t="s">
         <v>217</v>
       </c>
-      <c r="D208" s="5" t="s">
+      <c r="D208" s="2" t="s">
         <v>217</v>
       </c>
       <c r="E208" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" t="s">
         <v>218</v>
       </c>
-      <c r="D209" s="5" t="s">
+      <c r="D209" s="2" t="s">
         <v>218</v>
       </c>
       <c r="E209" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
         <v>219</v>
       </c>
-      <c r="D210" s="5">
+      <c r="D210" s="2">
         <v>6</v>
       </c>
       <c r="E210" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
         <v>220</v>
       </c>
-      <c r="D211" s="5">
+      <c r="D211" s="2">
         <v>60</v>
       </c>
       <c r="E211" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4708,14 +4705,14 @@
       <c r="C212" t="s">
         <v>354</v>
       </c>
-      <c r="D212" s="5" t="s">
+      <c r="D212" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E212" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4725,14 +4722,14 @@
       <c r="C213" t="s">
         <v>359</v>
       </c>
-      <c r="D213" s="5" t="s">
+      <c r="D213" s="2" t="s">
         <v>360</v>
       </c>
       <c r="E213" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4742,14 +4739,14 @@
       <c r="C214" t="s">
         <v>354</v>
       </c>
-      <c r="D214" s="5" t="s">
+      <c r="D214" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E214" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -4759,378 +4756,378 @@
       <c r="C215" t="s">
         <v>359</v>
       </c>
-      <c r="D215" s="5" t="s">
+      <c r="D215" s="2" t="s">
         <v>362</v>
       </c>
       <c r="E215" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
         <v>223</v>
       </c>
-      <c r="D216" s="5" t="s">
+      <c r="D216" s="2" t="s">
         <v>363</v>
       </c>
       <c r="F216" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" t="s">
         <v>224</v>
       </c>
-      <c r="D217" s="5" t="s">
+      <c r="D217" s="2" t="s">
         <v>361</v>
       </c>
       <c r="F217" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" t="s">
         <v>225</v>
       </c>
-      <c r="D218" s="5" t="s">
+      <c r="D218" s="2" t="s">
         <v>225</v>
       </c>
       <c r="E218" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" t="s">
         <v>226</v>
       </c>
-      <c r="D219" s="5" t="s">
+      <c r="D219" s="2" t="s">
         <v>226</v>
       </c>
       <c r="E219" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220" t="s">
         <v>227</v>
       </c>
-      <c r="D220" s="5" t="s">
+      <c r="D220" s="2" t="s">
         <v>364</v>
       </c>
       <c r="E220" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" t="s">
         <v>228</v>
       </c>
-      <c r="D221" s="5" t="s">
+      <c r="D221" s="2" t="s">
         <v>228</v>
       </c>
       <c r="F221" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" t="s">
         <v>230</v>
       </c>
-      <c r="D222" s="5" t="s">
+      <c r="D222" s="2" t="s">
         <v>230</v>
       </c>
       <c r="F222" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" t="s">
         <v>231</v>
       </c>
-      <c r="D223" s="5" t="s">
+      <c r="D223" s="2" t="s">
         <v>231</v>
       </c>
       <c r="F223" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224" t="s">
         <v>232</v>
       </c>
-      <c r="D224" s="5" t="s">
+      <c r="D224" s="2" t="s">
         <v>232</v>
       </c>
       <c r="F224" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225" t="s">
         <v>233</v>
       </c>
-      <c r="D225" s="5" t="s">
+      <c r="D225" s="2" t="s">
         <v>233</v>
       </c>
       <c r="F225" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226" t="s">
         <v>234</v>
       </c>
-      <c r="D226" s="5" t="s">
+      <c r="D226" s="2" t="s">
         <v>234</v>
       </c>
       <c r="F226" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227" t="s">
         <v>235</v>
       </c>
-      <c r="D227" s="5" t="s">
+      <c r="D227" s="2" t="s">
         <v>234</v>
       </c>
       <c r="F227" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228" t="s">
         <v>236</v>
       </c>
-      <c r="D228" s="5" t="s">
+      <c r="D228" s="2" t="s">
         <v>365</v>
       </c>
       <c r="F228" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229" t="s">
         <v>237</v>
       </c>
-      <c r="D229" s="5" t="s">
+      <c r="D229" s="2" t="s">
         <v>365</v>
       </c>
       <c r="F229" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" t="s">
         <v>238</v>
       </c>
-      <c r="D230" s="5">
+      <c r="D230" s="2">
         <v>6</v>
       </c>
       <c r="E230" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231" t="s">
         <v>239</v>
       </c>
-      <c r="D231" s="5">
+      <c r="D231" s="2">
         <v>6</v>
       </c>
       <c r="E231" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" t="s">
         <v>240</v>
       </c>
-      <c r="D232" s="5">
+      <c r="D232" s="2">
         <v>6</v>
       </c>
       <c r="E232" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" t="s">
         <v>241</v>
       </c>
-      <c r="D233" s="5" t="s">
+      <c r="D233" s="2" t="s">
         <v>366</v>
       </c>
       <c r="E233" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" t="s">
         <v>242</v>
       </c>
-      <c r="D234" s="5" t="s">
+      <c r="D234" s="2" t="s">
         <v>351</v>
       </c>
       <c r="E234" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235" t="s">
         <v>243</v>
       </c>
-      <c r="D235" s="5">
+      <c r="D235" s="2">
         <v>6</v>
       </c>
       <c r="E235" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236" t="s">
         <v>244</v>
       </c>
-      <c r="D236" s="5" t="s">
+      <c r="D236" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E236" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237" t="s">
         <v>245</v>
       </c>
-      <c r="D237" s="5" t="s">
+      <c r="D237" s="2" t="s">
         <v>245</v>
       </c>
       <c r="E237" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238" t="s">
         <v>246</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="2">
         <v>70</v>
       </c>
       <c r="F238" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239" t="s">
         <v>247</v>
       </c>
-      <c r="D239" s="5" t="s">
+      <c r="D239" s="2" t="s">
         <v>367</v>
       </c>
       <c r="F239" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240" t="s">
         <v>248</v>
       </c>
-      <c r="D240" s="5">
+      <c r="D240" s="2">
         <v>71</v>
       </c>
       <c r="F240" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241" t="s">
         <v>249</v>
       </c>
-      <c r="D241" s="5" t="s">
+      <c r="D241" s="2" t="s">
         <v>368</v>
       </c>
       <c r="F241" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5140,14 +5137,14 @@
       <c r="C242" t="s">
         <v>370</v>
       </c>
-      <c r="D242" s="5">
+      <c r="D242" s="2">
         <v>72</v>
       </c>
       <c r="F242" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5157,14 +5154,14 @@
       <c r="C243" t="s">
         <v>371</v>
       </c>
-      <c r="D243" s="5">
+      <c r="D243" s="2">
         <v>59</v>
       </c>
       <c r="F243" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -5174,14 +5171,14 @@
       <c r="C244" t="s">
         <v>370</v>
       </c>
-      <c r="D244" s="5" t="s">
+      <c r="D244" s="2" t="s">
         <v>369</v>
       </c>
       <c r="F244" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -5191,14 +5188,14 @@
       <c r="C245" t="s">
         <v>371</v>
       </c>
-      <c r="D245" s="5" t="s">
+      <c r="D245" s="2" t="s">
         <v>373</v>
       </c>
       <c r="F245" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="246" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -5208,7 +5205,7 @@
       <c r="C246" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="D246" s="8" t="s">
+      <c r="D246" s="7" t="s">
         <v>375</v>
       </c>
       <c r="F246" s="4" t="s">
@@ -5218,7 +5215,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -5228,532 +5225,532 @@
       <c r="C247" t="s">
         <v>371</v>
       </c>
-      <c r="D247" s="5" t="s">
+      <c r="D247" s="2" t="s">
         <v>374</v>
       </c>
       <c r="F247" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
       <c r="B248" t="s">
         <v>253</v>
       </c>
-      <c r="D248" s="5" t="s">
+      <c r="D248" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E248" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
       <c r="B249" t="s">
         <v>254</v>
       </c>
-      <c r="D249" s="5" t="s">
+      <c r="D249" s="2" t="s">
         <v>254</v>
       </c>
       <c r="E249" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
       <c r="B250" t="s">
         <v>255</v>
       </c>
-      <c r="D250" s="5" t="s">
+      <c r="D250" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E250" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
       <c r="B251" t="s">
         <v>256</v>
       </c>
-      <c r="D251" s="5" t="s">
+      <c r="D251" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E251" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252" t="s">
         <v>257</v>
       </c>
-      <c r="D252" s="5" t="s">
+      <c r="D252" s="2" t="s">
         <v>377</v>
       </c>
       <c r="E252" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
       <c r="B253" t="s">
         <v>258</v>
       </c>
-      <c r="D253" s="9" t="s">
+      <c r="D253" s="8" t="s">
         <v>378</v>
       </c>
       <c r="E253" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254" t="s">
         <v>259</v>
       </c>
-      <c r="D254" s="9" t="s">
+      <c r="D254" s="8" t="s">
         <v>378</v>
       </c>
       <c r="E254" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>253</v>
       </c>
       <c r="B255" t="s">
         <v>260</v>
       </c>
-      <c r="D255" s="9" t="s">
+      <c r="D255" s="8" t="s">
         <v>379</v>
       </c>
       <c r="E255" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256" t="s">
         <v>261</v>
       </c>
-      <c r="D256" s="5" t="s">
+      <c r="D256" s="2" t="s">
         <v>254</v>
       </c>
       <c r="E256" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
       <c r="B257" t="s">
         <v>262</v>
       </c>
-      <c r="D257" s="5" t="s">
+      <c r="D257" s="2" t="s">
         <v>254</v>
       </c>
       <c r="E257" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
       <c r="B258" t="s">
         <v>263</v>
       </c>
-      <c r="D258" s="5" t="s">
+      <c r="D258" s="2" t="s">
         <v>255</v>
       </c>
       <c r="E258" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259" t="s">
         <v>264</v>
       </c>
-      <c r="D259" s="5" t="s">
+      <c r="D259" s="2" t="s">
         <v>271</v>
       </c>
       <c r="E259" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>258</v>
       </c>
       <c r="B260" t="s">
         <v>265</v>
       </c>
-      <c r="D260" s="5" t="s">
+      <c r="D260" s="2" t="s">
         <v>265</v>
       </c>
       <c r="E260" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
       <c r="B261" t="s">
         <v>266</v>
       </c>
-      <c r="D261" s="5" t="s">
+      <c r="D261" s="2" t="s">
         <v>271</v>
       </c>
       <c r="E261" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
       <c r="B262" t="s">
         <v>267</v>
       </c>
-      <c r="D262" s="5" t="s">
+      <c r="D262" s="2" t="s">
         <v>267</v>
       </c>
       <c r="E262" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
       <c r="B263" t="s">
         <v>268</v>
       </c>
-      <c r="D263" s="5" t="s">
+      <c r="D263" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E263" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
       <c r="B264" t="s">
         <v>269</v>
       </c>
-      <c r="D264" s="5" t="s">
+      <c r="D264" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E264" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
       <c r="B265" t="s">
         <v>270</v>
       </c>
-      <c r="D265" s="5" t="s">
+      <c r="D265" s="2" t="s">
         <v>380</v>
       </c>
       <c r="E265" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
       <c r="B266" t="s">
         <v>271</v>
       </c>
-      <c r="D266" s="5" t="s">
+      <c r="D266" s="2" t="s">
         <v>271</v>
       </c>
       <c r="E266" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
       <c r="B267" t="s">
         <v>272</v>
       </c>
-      <c r="D267" s="5" t="s">
+      <c r="D267" s="2" t="s">
         <v>271</v>
       </c>
       <c r="E267" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
       <c r="B268" t="s">
         <v>273</v>
       </c>
-      <c r="D268" s="5" t="s">
+      <c r="D268" s="2" t="s">
         <v>381</v>
       </c>
       <c r="E268" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>267</v>
       </c>
       <c r="B269" t="s">
         <v>274</v>
       </c>
-      <c r="D269" s="9" t="s">
+      <c r="D269" s="8" t="s">
         <v>382</v>
       </c>
       <c r="E269" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
       <c r="B270" t="s">
         <v>275</v>
       </c>
-      <c r="D270" s="9" t="s">
+      <c r="D270" s="8" t="s">
         <v>383</v>
       </c>
       <c r="E270" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>269</v>
       </c>
       <c r="B271" t="s">
         <v>276</v>
       </c>
-      <c r="D271" s="9" t="s">
+      <c r="D271" s="8" t="s">
         <v>384</v>
       </c>
       <c r="E271" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
       <c r="B272" t="s">
         <v>277</v>
       </c>
-      <c r="D272" s="9" t="s">
+      <c r="D272" s="8" t="s">
         <v>267</v>
       </c>
       <c r="E272" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273" t="s">
         <v>278</v>
       </c>
-      <c r="D273" s="9" t="s">
+      <c r="D273" s="8" t="s">
         <v>267</v>
       </c>
       <c r="E273" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>272</v>
       </c>
       <c r="B274" t="s">
         <v>279</v>
       </c>
-      <c r="D274" s="5" t="s">
+      <c r="D274" s="2" t="s">
         <v>385</v>
       </c>
       <c r="E274" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
       <c r="B275" t="s">
         <v>280</v>
       </c>
-      <c r="D275" s="5" t="s">
+      <c r="D275" s="2" t="s">
         <v>381</v>
       </c>
       <c r="E275" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>274</v>
       </c>
       <c r="B276" t="s">
         <v>281</v>
       </c>
-      <c r="D276" s="5" t="s">
+      <c r="D276" s="2" t="s">
         <v>271</v>
       </c>
       <c r="E276" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
       <c r="B277" t="s">
         <v>282</v>
       </c>
-      <c r="D277" s="5" t="s">
+      <c r="D277" s="2" t="s">
         <v>386</v>
       </c>
       <c r="E277" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>276</v>
       </c>
       <c r="B278" t="s">
         <v>283</v>
       </c>
-      <c r="D278" s="5" t="s">
+      <c r="D278" s="2" t="s">
         <v>386</v>
       </c>
       <c r="E278" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
       <c r="B279" t="s">
         <v>284</v>
       </c>
-      <c r="D279" s="9" t="s">
+      <c r="D279" s="8" t="s">
         <v>387</v>
       </c>
       <c r="E279" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
       <c r="B280" t="s">
         <v>285</v>
       </c>
-      <c r="D280" s="9" t="s">
+      <c r="D280" s="8" t="s">
         <v>387</v>
       </c>
       <c r="E280" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
       <c r="B281" t="s">
         <v>286</v>
       </c>
-      <c r="D281" s="9" t="s">
+      <c r="D281" s="8" t="s">
         <v>388</v>
       </c>
       <c r="E281" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
       <c r="B282" t="s">
         <v>287</v>
       </c>
-      <c r="D282" s="5" t="s">
+      <c r="D282" s="2" t="s">
         <v>389</v>
       </c>
       <c r="E282" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
       <c r="B283" t="s">
         <v>288</v>
       </c>
-      <c r="D283" s="5">
+      <c r="D283" s="2">
         <v>9</v>
       </c>
       <c r="E283" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
       <c r="B284" t="s">
         <v>289</v>
       </c>
-      <c r="D284" s="5" t="s">
+      <c r="D284" s="2" t="s">
         <v>390</v>
       </c>
       <c r="F284" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -5761,7 +5758,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -5775,7 +5772,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -5789,21 +5786,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
       <c r="B288" t="s">
         <v>395</v>
       </c>
-      <c r="D288" s="5" t="s">
+      <c r="D288" s="2" t="s">
         <v>396</v>
       </c>
       <c r="E288" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -5817,7 +5814,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
